--- a/legislator/property/output/normal/吳秉叡_2013-12-12_財產申報表_tmpea101.xlsx
+++ b/legislator/property/output/normal/吳秉叡_2013-12-12_財產申報表_tmpea101.xlsx
@@ -21,9 +21,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="150">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="162">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市新莊區福營段02960000地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段01280000地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公園段一小段01280001地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段01280002地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段01280003地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段01280004地號</t>
+  </si>
+  <si>
+    <t>新北市新店區中央段三小段10160000地號</t>
+  </si>
+  <si>
+    <t>100分之20</t>
+  </si>
+  <si>
+    <t>100000分之425</t>
+  </si>
+  <si>
+    <t>1000000分之105046</t>
+  </si>
+  <si>
+    <t>吳秉截</t>
+  </si>
+  <si>
+    <t>吳秉睿又</t>
+  </si>
+  <si>
+    <t>吳秉叡</t>
+  </si>
+  <si>
+    <t>99年04月12日</t>
+  </si>
+  <si>
+    <t>79年10月01日</t>
+  </si>
+  <si>
+    <t>99年12月24日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超過五年)</t>
+  </si>
+  <si>
+    <t>7350000(此土地已交由兆豐銀行信託保管。）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-12</t>
+  </si>
+  <si>
+    <t>tmpea101</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -35,100 +149,31 @@
     <t>所有權人</t>
   </si>
   <si>
-    <t>i登記（取得）時間</t>
+    <t>登記（取得）時間</t>
   </si>
   <si>
     <t>登記（取得）原因</t>
   </si>
   <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新北市新莊區福營段0296 - 0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段 0128-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公園段一小段 0128-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段 0128-0002 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段 0128-0003 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段 0128-0004 地號</t>
-  </si>
-  <si>
-    <t>新北市新店區中央段三小段 1016-0000 地號</t>
-  </si>
-  <si>
-    <t>100分之20</t>
-  </si>
-  <si>
-    <t>100000 分 之425</t>
-  </si>
-  <si>
-    <t>1000000 分 之 105046</t>
-  </si>
-  <si>
-    <t>吳秉截</t>
-  </si>
-  <si>
-    <t>吳秉睿又</t>
-  </si>
-  <si>
-    <t>吳秉叡</t>
-  </si>
-  <si>
-    <t>99年04月 12日</t>
-  </si>
-  <si>
-    <t>79年10月 01日</t>
-  </si>
-  <si>
-    <t>99年12月 24日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超過五年)</t>
-  </si>
-  <si>
-    <t>7，350，000(此 土地已交由兆 豐銀行信託保 管。）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>新北市新莊區福營段00790-000 建號 +</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段 00844-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段 00713-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段 00970-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段 00843-000 建號</t>
-  </si>
-  <si>
-    <t>新北市新店區中央段00638-000 建號</t>
-  </si>
-  <si>
-    <t>新北市新店區中央段00328-000 建號</t>
+    <t>新北市新莊區福營段00790000建號+</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段00844000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段00713000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段00970000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段00843000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區中央段00638000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區中央段00328000建號</t>
   </si>
   <si>
     <t>10分之2</t>
@@ -137,37 +182,37 @@
     <t>全部</t>
   </si>
   <si>
-    <t>100000 分 之551</t>
-  </si>
-  <si>
-    <t>100000 分 之263</t>
-  </si>
-  <si>
-    <t>100000 分 之320</t>
-  </si>
-  <si>
-    <t>100000 分 之153</t>
-  </si>
-  <si>
-    <t>100000 分 之 2730</t>
-  </si>
-  <si>
-    <t>100000 分 之 18303</t>
+    <t>100000分之551</t>
+  </si>
+  <si>
+    <t>100000分之263</t>
+  </si>
+  <si>
+    <t>100000分之320</t>
+  </si>
+  <si>
+    <t>100000分之153</t>
+  </si>
+  <si>
+    <t>100000分之2730</t>
+  </si>
+  <si>
+    <t>100000分之18303</t>
   </si>
   <si>
     <t>吳秉數</t>
   </si>
   <si>
-    <t>99年08月 23日</t>
-  </si>
-  <si>
-    <t>79年10月 01曰</t>
-  </si>
-  <si>
-    <t>102 年 06 月14曰</t>
-  </si>
-  <si>
-    <t>102 年 10 月03日</t>
+    <t>99年08月23日</t>
+  </si>
+  <si>
+    <t>79年10月01曰</t>
+  </si>
+  <si>
+    <t>102年06月14曰</t>
+  </si>
+  <si>
+    <t>102年10月03日</t>
   </si>
   <si>
     <t>新建</t>
@@ -176,13 +221,13 @@
     <t>.(超過五年）</t>
   </si>
   <si>
-    <t>21，294，000(與 第8筆土地合 購，此建物已交 由兆豐銀行信 託保管。)</t>
-  </si>
-  <si>
-    <t>11，530,890(與 第9筆土地合 購，此建物已交 由兆豐銀行信 託保管。)</t>
-  </si>
-  <si>
-    <t>存放機_構(應敘明分支機構）</t>
+    <t>21294000(與第8筆土地合購此建物已交由兆豐銀行信託保管。)</t>
+  </si>
+  <si>
+    <t>11530890(與第9筆土地合購此建物已交由兆豐銀行信託保管。)</t>
+  </si>
+  <si>
+    <t>存放機構(應敘明分支機構）</t>
   </si>
   <si>
     <t>種類</t>
@@ -206,13 +251,13 @@
     <t>臺灣銀行板橋分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行館前分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行光復分 行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行大安分 行</t>
+    <t>國泰世華商業銀行館前分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行光復分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行大安分行</t>
   </si>
   <si>
     <t>台北法院郵局(第20支局）</t>
@@ -227,16 +272,13 @@
     <t>彰化商業銀行城內分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行中山分 行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行桃園分 行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分 行'</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分 行</t>
+    <t>中國信託商業銀行中山分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行桃園分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -263,10 +305,10 @@
     <t>詹文馨</t>
   </si>
   <si>
-    <t>14，200，593</t>
-  </si>
-  <si>
-    <t>1,140，706</t>
+    <t>14200593</t>
+  </si>
+  <si>
+    <t>1140706</t>
   </si>
   <si>
     <t>名稱</t>
@@ -287,7 +329,7 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>貝萊德環球企業 債券基金</t>
+    <t>貝萊德環球企業債券基金</t>
   </si>
   <si>
     <t>摩根東協基金</t>
@@ -296,34 +338,28 @@
     <t>德盛小龍基金</t>
   </si>
   <si>
-    <t>霸菱全球資源基 金〈美元〉</t>
-  </si>
-  <si>
-    <t>霸菱東歐基金 〈美元〉</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓 全球基金</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓 全球拉丁美洲基 金</t>
-  </si>
-  <si>
-    <t>聯博全球高收益 債AT股</t>
-  </si>
-  <si>
-    <t>匯豐全球關鍵資 源基金</t>
-  </si>
-  <si>
-    <t>貝萊德新興市場 基金</t>
-  </si>
-  <si>
-    <t>詹文馨_</t>
-  </si>
-  <si>
-    <t>中國信託商業 銀行城中分行</t>
-  </si>
-  <si>
-    <t>中國信1右商業 銀行城中分行</t>
+    <t>霸菱全球資源基金〈美元〉</t>
+  </si>
+  <si>
+    <t>霸菱東歐基金〈美元〉</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓全球基金</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓全球拉丁美洲基金</t>
+  </si>
+  <si>
+    <t>聯博全球高收益債AT股</t>
+  </si>
+  <si>
+    <t>匯豐全球關鍵資源基金</t>
+  </si>
+  <si>
+    <t>貝萊德新興市場基金</t>
+  </si>
+  <si>
+    <t>中國信1右商業銀行城中分行</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -338,7 +374,7 @@
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>安泰人壽55年增值分紅養老 壽險</t>
+    <t>安泰人壽55年增值分紅養老壽險</t>
   </si>
   <si>
     <t>債權人</t>
@@ -359,13 +395,13 @@
     <t>現金</t>
   </si>
   <si>
-    <t>聖裕投資有限公司 新北市新莊區龍安路1.06巷 1號4樓</t>
-  </si>
-  <si>
-    <t>冠虹投資有限公司 新北市新莊區化成路814巷</t>
-  </si>
-  <si>
-    <t>102年07月 15曰</t>
+    <t>聖裕投資有限公司新北市新莊區龍安路1.06巷1號4樓</t>
+  </si>
+  <si>
+    <t>冠虹投資有限公司新北市新莊區化成路814巷</t>
+  </si>
+  <si>
+    <t>102年07月15曰</t>
   </si>
   <si>
     <t>102年07月</t>
@@ -386,28 +422,28 @@
     <t>私人債務</t>
   </si>
   <si>
-    <t>大台北商業銀行城內分行 臺北市中正區重慶南路一段 64號</t>
-  </si>
-  <si>
-    <t>吳鎮宇 桃園縣桃圜市國聖一街</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行大安分行 臺北市信義區信義路三段 182號</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行大安分行 臺北市信義區信義路二段 182號</t>
-  </si>
-  <si>
-    <t>102年02月 26日</t>
-  </si>
-  <si>
-    <t>102年09月. 25日</t>
-  </si>
-  <si>
-    <t>102年10月 16日</t>
-  </si>
-  <si>
-    <t>102年11月 14日</t>
+    <t>大台北商業銀行城內分行臺北市中正區重慶南路一段64號</t>
+  </si>
+  <si>
+    <t>吳鎮宇桃園縣桃圜市國聖一街</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行大安分行臺北市信義區信義路三段182號</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行大安分行臺北市信義區信義路二段182號</t>
+  </si>
+  <si>
+    <t>102年02月26日</t>
+  </si>
+  <si>
+    <t>102年09月.25日</t>
+  </si>
+  <si>
+    <t>102年10月16日</t>
+  </si>
+  <si>
+    <t>102年11月14日</t>
   </si>
   <si>
     <t>投資</t>
@@ -437,7 +473,7 @@
     <t>冠虹投資有限公司</t>
   </si>
   <si>
-    <t>新北市龍安路106巷1號4 樓</t>
+    <t>新北市龍安路106巷1號4樓</t>
   </si>
   <si>
     <t>新北市成泰路一段2號3樓</t>
@@ -449,25 +485,25 @@
     <t>新北市化成路814巷1號</t>
   </si>
   <si>
-    <t>8，736’300</t>
-  </si>
-  <si>
-    <t>10,000，000</t>
-  </si>
-  <si>
-    <t>2，940,000</t>
-  </si>
-  <si>
-    <t>100年08月 29日</t>
-  </si>
-  <si>
-    <t>99年02月 23日</t>
-  </si>
-  <si>
-    <t>78年07月 01日</t>
-  </si>
-  <si>
-    <t>102年07月 15日</t>
+    <t>8736300</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>2940000</t>
+  </si>
+  <si>
+    <t>100年08月29日</t>
+  </si>
+  <si>
+    <t>99年02月23日</t>
+  </si>
+  <si>
+    <t>78年07月01日</t>
+  </si>
+  <si>
+    <t>102年07月15日</t>
   </si>
   <si>
     <t>個人投資</t>
@@ -829,13 +865,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,187 +893,355 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>680.11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2">
         <v>6146788</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>2002</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>187</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="2">
         <v>19</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>189.5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1055,23 +1259,23 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1079,22 +1283,22 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>219.58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2">
         <v>470313</v>
@@ -1105,25 +1309,25 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>59.84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1131,25 +1335,25 @@
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>2165.17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1157,25 +1361,25 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>983.38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1183,25 +1387,25 @@
         <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
         <v>34.75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1209,25 +1413,25 @@
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2">
         <v>2165.17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1235,25 +1439,25 @@
         <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2">
         <v>983.38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1261,25 +1465,25 @@
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2">
         <v>144.63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1287,25 +1491,25 @@
         <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2">
         <v>144.63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1323,22 +1527,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1346,16 +1550,16 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1367,16 +1571,16 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1388,16 +1592,16 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1409,16 +1613,16 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1430,20 +1634,20 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1451,16 +1655,16 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1472,16 +1676,16 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1493,16 +1697,16 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1514,20 +1718,20 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1535,16 +1739,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1556,16 +1760,16 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1577,16 +1781,16 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F13" s="2">
         <v>1786.16</v>
@@ -1600,16 +1804,16 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F14" s="2">
         <v>20219.4</v>
@@ -1633,25 +1837,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1659,13 +1863,13 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>1752.85</v>
@@ -1674,7 +1878,7 @@
         <v>10.93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H2" s="2">
         <v>566444.66</v>
@@ -1685,13 +1889,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
         <v>27.15</v>
@@ -1700,7 +1904,7 @@
         <v>111.59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H3" s="2">
         <v>89575.17</v>
@@ -1711,13 +1915,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2">
         <v>71.95</v>
@@ -1726,7 +1930,7 @@
         <v>100.87</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H4" s="2">
         <v>214578.09</v>
@@ -1737,13 +1941,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2">
         <v>478.86</v>
@@ -1752,7 +1956,7 @@
         <v>20.66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H5" s="2">
         <v>292503.75</v>
@@ -1763,13 +1967,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2">
         <v>147.06</v>
@@ -1778,7 +1982,7 @@
         <v>99.17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H6" s="2">
         <v>431188.77</v>
@@ -1789,13 +1993,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2">
         <v>114.7</v>
@@ -1804,7 +2008,7 @@
         <v>22.46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H7" s="2">
         <v>76166.8</v>
@@ -1815,13 +2019,13 @@
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2">
         <v>225.38</v>
@@ -1830,7 +2034,7 @@
         <v>62.94</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H8" s="2">
         <v>419406.04</v>
@@ -1841,13 +2045,13 @@
         <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2">
         <v>5525.52</v>
@@ -1856,7 +2060,7 @@
         <v>4.65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H9" s="2">
         <v>759658.98</v>
@@ -1867,13 +2071,13 @@
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2">
         <v>65205.5</v>
@@ -1882,7 +2086,7 @@
         <v>7.66</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H10" s="2">
         <v>499474.13</v>
@@ -1893,13 +2097,13 @@
         <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2">
         <v>507.9</v>
@@ -1908,7 +2112,7 @@
         <v>29.41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H11" s="2">
         <v>441637.36</v>
@@ -1929,13 +2133,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1943,13 +2147,13 @@
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1967,22 +2171,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1990,22 +2194,22 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2">
         <v>7690856</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2013,22 +2217,22 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2">
         <v>4802800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2046,22 +2250,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2069,22 +2273,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E2" s="2">
         <v>11000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2092,22 +2296,22 @@
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2">
         <v>15180000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2115,22 +2319,22 @@
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E4" s="2">
         <v>6000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2138,22 +2342,22 @@
         <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E5" s="2">
         <v>17265000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2171,22 +2375,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2194,22 +2398,22 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2217,22 +2421,22 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2240,22 +2444,22 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E4" s="2">
         <v>1650</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2263,22 +2467,22 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳秉叡_2013-12-12_財產申報表_tmpea101.xlsx
+++ b/legislator/property/output/normal/吳秉叡_2013-12-12_財產申報表_tmpea101.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="132">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市新莊區福營段02960000地號</t>
+  </si>
+  <si>
     <t>臺北市中正區公圜段一小段01280000地號</t>
   </si>
   <si>
@@ -89,18 +92,27 @@
     <t>新北市新店區中央段三小段10160000地號</t>
   </si>
   <si>
+    <t>100分之20</t>
+  </si>
+  <si>
     <t>100000分之425</t>
   </si>
   <si>
     <t>1000000分之105046</t>
   </si>
   <si>
+    <t>吳秉截</t>
+  </si>
+  <si>
     <t>吳秉睿又</t>
   </si>
   <si>
     <t>吳秉叡</t>
   </si>
   <si>
+    <t>99年04月12日</t>
+  </si>
+  <si>
     <t>79年10月01日</t>
   </si>
   <si>
@@ -134,67 +146,64 @@
     <t>新北市新莊區福營段00790000建號+</t>
   </si>
   <si>
+    <t>臺北市中正區公圜段一小段00844000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段00713000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段00970000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段00843000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區中央段00638000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區中央段00328000建號</t>
+  </si>
+  <si>
     <t>10分之2</t>
   </si>
   <si>
-    <t>吳秉截</t>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>100000分之551</t>
+  </si>
+  <si>
+    <t>100000分之263</t>
+  </si>
+  <si>
+    <t>100000分之320</t>
+  </si>
+  <si>
+    <t>100000分之153</t>
+  </si>
+  <si>
+    <t>100000分之2730</t>
+  </si>
+  <si>
+    <t>100000分之18303</t>
+  </si>
+  <si>
+    <t>吳秉數</t>
   </si>
   <si>
     <t>99年08月23日</t>
   </si>
   <si>
+    <t>79年10月01曰</t>
+  </si>
+  <si>
+    <t>102年06月14曰</t>
+  </si>
+  <si>
+    <t>102年10月03日</t>
+  </si>
+  <si>
     <t>新建</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段00844000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段00713000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段00970000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段00843000建號</t>
-  </si>
-  <si>
-    <t>新北市新店區中央段00638000建號</t>
-  </si>
-  <si>
-    <t>新北市新店區中央段00328000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>100000分之551</t>
-  </si>
-  <si>
-    <t>100000分之263</t>
-  </si>
-  <si>
-    <t>100000分之320</t>
-  </si>
-  <si>
-    <t>100000分之153</t>
-  </si>
-  <si>
-    <t>100000分之2730</t>
-  </si>
-  <si>
-    <t>100000分之18303</t>
-  </si>
-  <si>
-    <t>吳秉數</t>
-  </si>
-  <si>
-    <t>79年10月01曰</t>
-  </si>
-  <si>
-    <t>102年06月14曰</t>
-  </si>
-  <si>
-    <t>102年10月03日</t>
   </si>
   <si>
     <t>.(超過五年）</t>
@@ -766,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -824,319 +833,372 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2002</v>
+        <v>680.11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6146788</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2">
         <v>1324</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.00425</v>
+        <v>0.2</v>
       </c>
       <c r="Q2" s="2">
-        <v>8.5085</v>
+        <v>136.022</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>187</v>
+        <v>2002</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2">
         <v>1324</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.00425</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.79475</v>
+        <v>8.5085</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2">
         <v>1324</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.00425</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.765</v>
+        <v>0.79475</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M5" s="2">
         <v>1324</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.00425</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.034</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M6" s="2">
         <v>1324</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.00425</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.4675</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>189.5</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M7" s="2">
         <v>1324</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.00425</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.4675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>189.5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="2">
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2">
         <v>20</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P8" s="2">
         <v>0.105046</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q8" s="2">
         <v>19.906217</v>
       </c>
     </row>
@@ -1147,7 +1209,855 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>219.58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2">
+        <v>470313</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>43.916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2">
+        <v>59.84</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
+        <v>29</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>59.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2165.17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.00551</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>11.9300867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
+        <v>983.38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2">
+        <v>31</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.00263</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2.5862894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2">
+        <v>34.75</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2165.17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2">
+        <v>33</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0032</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>6.928544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2">
+        <v>983.38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2">
+        <v>34</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.00153</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1.5045714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>144.63</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="2">
+        <v>35</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.0273</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3.948399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2">
+        <v>144.63</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="2">
+        <v>36</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.18303</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>26.4716289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>17240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>17240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>561026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>339346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>1232986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>1012891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>3495199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>71</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1786.16</v>
+      </c>
+      <c r="G13" s="2">
+        <v>52809.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>73</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20219.4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>597806.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1155,233 +2065,285 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1">
-        <v>219.58</v>
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1752.85</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10.93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1">
-        <v>470313</v>
+        <v>566444.66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2">
-        <v>59.84</v>
+        <v>86</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1752.85</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10.93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>81</v>
+      </c>
+      <c r="H2" s="2">
+        <v>566444.66</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2165.17</v>
+        <v>87</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
+      </c>
+      <c r="E3" s="2">
+        <v>27.15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>111.59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
+      </c>
+      <c r="H3" s="2">
+        <v>89575.17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2">
-        <v>983.38</v>
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
+      </c>
+      <c r="E4" s="2">
+        <v>71.95</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100.87</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
+      </c>
+      <c r="H4" s="2">
+        <v>214578.09</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2">
-        <v>34.75</v>
+        <v>89</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
+      </c>
+      <c r="E5" s="2">
+        <v>478.86</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20.66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
+      </c>
+      <c r="H5" s="2">
+        <v>292503.75</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2165.17</v>
+        <v>90</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
+      </c>
+      <c r="E6" s="2">
+        <v>147.06</v>
+      </c>
+      <c r="F6" s="2">
+        <v>99.17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
+      </c>
+      <c r="H6" s="2">
+        <v>431188.77</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2">
-        <v>983.38</v>
+        <v>91</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
+      </c>
+      <c r="E7" s="2">
+        <v>114.7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>22.46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
+      </c>
+      <c r="H7" s="2">
+        <v>76166.8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2">
-        <v>144.63</v>
+        <v>92</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
+      </c>
+      <c r="E8" s="2">
+        <v>225.38</v>
+      </c>
+      <c r="F8" s="2">
+        <v>62.94</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
+      </c>
+      <c r="H8" s="2">
+        <v>419406.04</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2">
-        <v>144.63</v>
+        <v>93</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5525.52</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4.65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
+      </c>
+      <c r="H9" s="2">
+        <v>759658.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>99</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2">
+        <v>65205.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7.66</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="2">
+        <v>499474.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>100</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="2">
+        <v>507.9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>29.41</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="2">
+        <v>441637.36</v>
       </c>
     </row>
   </sheetData>
@@ -1389,9 +2351,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1399,276 +2399,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>17240</v>
+        <v>100</v>
+      </c>
+      <c r="E1" s="1">
+        <v>7690856</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>561026</v>
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7690856</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>65</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>66</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>339346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>67</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>1232986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>68</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1012891</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>69</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>70</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>3495199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>71</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>72</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1786.16</v>
-      </c>
-      <c r="G12" s="2">
-        <v>52809.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>73</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="2">
-        <v>20219.4</v>
-      </c>
-      <c r="G13" s="2">
-        <v>597806.78</v>
+        <v>103</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4802800</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1676,303 +2468,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1752.85</v>
-      </c>
-      <c r="F1" s="1">
-        <v>10.93</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="1">
-        <v>566444.66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>92</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2">
-        <v>27.15</v>
-      </c>
-      <c r="F2" s="2">
-        <v>111.59</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="2">
-        <v>89575.17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>93</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="2">
-        <v>71.95</v>
-      </c>
-      <c r="F3" s="2">
-        <v>100.87</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="2">
-        <v>214578.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>94</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="2">
-        <v>478.86</v>
-      </c>
-      <c r="F4" s="2">
-        <v>20.66</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="2">
-        <v>292503.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>95</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="2">
-        <v>147.06</v>
-      </c>
-      <c r="F5" s="2">
-        <v>99.17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="2">
-        <v>431188.77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>96</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="2">
-        <v>114.7</v>
-      </c>
-      <c r="F6" s="2">
-        <v>22.46</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="2">
-        <v>76166.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>97</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="2">
-        <v>225.38</v>
-      </c>
-      <c r="F7" s="2">
-        <v>62.94</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="2">
-        <v>419406.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>98</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5525.52</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4.65</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="2">
-        <v>759658.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>99</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="2">
-        <v>65205.5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>7.66</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="2">
-        <v>499474.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>100</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="2">
-        <v>507.9</v>
-      </c>
-      <c r="F10" s="2">
-        <v>29.41</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="2">
-        <v>441637.36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1980,45 +2478,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1">
-        <v>7690856</v>
+        <v>11000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2">
-        <v>4802800</v>
+        <v>11000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>129</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15180000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>130</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>131</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="2">
+        <v>17265000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2026,9 +2593,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2036,193 +2603,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="1">
-        <v>11000000</v>
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15180000</v>
+        <v>117</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="2">
-        <v>6000000</v>
+        <v>124</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>138</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1650</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>139</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="2">
-        <v>17265000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>137</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>138</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1650</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>139</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳秉叡_2013-12-12_財產申報表_tmpea101.xlsx
+++ b/legislator/property/output/normal/吳秉叡_2013-12-12_財產申報表_tmpea101.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="133">
   <si>
     <t>name</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>11530890(與第9筆土地合購此建物已交由兆豐銀行信託保管。)</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>大台北商業銀行城內分行</t>
@@ -1291,7 +1294,7 @@
         <v>470313</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>
@@ -1344,7 +1347,7 @@
         <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>37</v>
@@ -1397,7 +1400,7 @@
         <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>37</v>
@@ -1450,7 +1453,7 @@
         <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>37</v>
@@ -1503,7 +1506,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>37</v>
@@ -1556,7 +1559,7 @@
         <v>33</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>37</v>
@@ -1609,7 +1612,7 @@
         <v>61</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>37</v>
@@ -1662,7 +1665,7 @@
         <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>37</v>
@@ -1715,7 +1718,7 @@
         <v>63</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>37</v>
@@ -1757,13 +1760,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -1778,13 +1781,13 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -1799,13 +1802,13 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1820,13 +1823,13 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1841,13 +1844,13 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>28</v>
@@ -1862,20 +1865,20 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1883,16 +1886,16 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1904,16 +1907,16 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1925,16 +1928,16 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1946,20 +1949,20 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1967,16 +1970,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1988,16 +1991,16 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -2009,16 +2012,16 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2">
         <v>1786.16</v>
@@ -2032,16 +2035,16 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2">
         <v>20219.4</v>
@@ -2065,13 +2068,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1">
         <v>1752.85</v>
@@ -2080,7 +2083,7 @@
         <v>10.93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1">
         <v>566444.66</v>
@@ -2091,13 +2094,13 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>1752.85</v>
@@ -2106,7 +2109,7 @@
         <v>10.93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2">
         <v>566444.66</v>
@@ -2117,13 +2120,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>27.15</v>
@@ -2132,7 +2135,7 @@
         <v>111.59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2">
         <v>89575.17</v>
@@ -2143,13 +2146,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2">
         <v>71.95</v>
@@ -2158,7 +2161,7 @@
         <v>100.87</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2">
         <v>214578.09</v>
@@ -2169,13 +2172,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2">
         <v>478.86</v>
@@ -2184,7 +2187,7 @@
         <v>20.66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2">
         <v>292503.75</v>
@@ -2195,13 +2198,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2">
         <v>147.06</v>
@@ -2210,7 +2213,7 @@
         <v>99.17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2">
         <v>431188.77</v>
@@ -2221,13 +2224,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2">
         <v>114.7</v>
@@ -2236,7 +2239,7 @@
         <v>22.46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2">
         <v>76166.8</v>
@@ -2247,13 +2250,13 @@
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2">
         <v>225.38</v>
@@ -2262,7 +2265,7 @@
         <v>62.94</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2">
         <v>419406.04</v>
@@ -2273,13 +2276,13 @@
         <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2">
         <v>5525.52</v>
@@ -2288,7 +2291,7 @@
         <v>4.65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2">
         <v>759658.98</v>
@@ -2299,13 +2302,13 @@
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2">
         <v>65205.5</v>
@@ -2314,7 +2317,7 @@
         <v>7.66</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H10" s="2">
         <v>499474.13</v>
@@ -2325,13 +2328,13 @@
         <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2">
         <v>507.9</v>
@@ -2340,7 +2343,7 @@
         <v>29.41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" s="2">
         <v>441637.36</v>
@@ -2361,13 +2364,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2375,13 +2378,13 @@
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2399,22 +2402,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1">
         <v>7690856</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2422,22 +2425,22 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>7690856</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2445,22 +2448,22 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2">
         <v>4802800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2478,22 +2481,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1">
         <v>11000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2501,22 +2504,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2">
         <v>11000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2524,22 +2527,22 @@
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2">
         <v>15180000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2547,22 +2550,22 @@
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2">
         <v>6000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2570,22 +2573,22 @@
         <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2">
         <v>17265000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2606,19 +2609,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2629,19 +2632,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2652,19 +2655,19 @@
         <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2675,19 +2678,19 @@
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E4" s="2">
         <v>1650</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2698,19 +2701,19 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳秉叡_2013-12-12_財產申報表_tmpea101.xlsx
+++ b/legislator/property/output/normal/吳秉叡_2013-12-12_財產申報表_tmpea101.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="135">
   <si>
     <t>name</t>
   </si>
@@ -218,57 +218,66 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>大台北商業銀行城內分行</t>
   </si>
   <si>
+    <t>臺灣銀行板橋分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行館前分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行光復分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行大安分行</t>
+  </si>
+  <si>
+    <t>台北法院郵局(第20支局）</t>
+  </si>
+  <si>
+    <t>立法院郵局（第25支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行龍山分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行城內分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行中山分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行桃園分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行板橋分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行館前分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行光復分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行大安分行</t>
-  </si>
-  <si>
-    <t>台北法院郵局(第20支局）</t>
-  </si>
-  <si>
-    <t>立法院郵局（第25支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行龍山分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行城內分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行中山分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行桃園分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -278,10 +287,7 @@
     <t>詹文馨</t>
   </si>
   <si>
-    <t>14200593</t>
-  </si>
-  <si>
-    <t>1140706</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>貝萊德環球企業債券基金</t>
@@ -1752,13 +1758,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1769,288 +1775,564 @@
         <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>17240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>17240</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>561026</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>248</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>771</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14200593</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+        <v>87</v>
+      </c>
+      <c r="F7" s="2">
         <v>339346</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1232986</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="2">
         <v>67</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1232986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+        <v>87</v>
+      </c>
+      <c r="F9" s="2">
         <v>1012891</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1140706</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+        <v>87</v>
+      </c>
+      <c r="F11" s="2">
         <v>3495199</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+        <v>87</v>
+      </c>
+      <c r="F12" s="2">
         <v>739</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F13" s="2">
-        <v>1786.16</v>
-      </c>
-      <c r="G13" s="2">
         <v>52809.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F14" s="2">
-        <v>20219.4</v>
-      </c>
-      <c r="G14" s="2">
         <v>597806.78</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2068,13 +2350,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1">
         <v>1752.85</v>
@@ -2083,7 +2365,7 @@
         <v>10.93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1">
         <v>566444.66</v>
@@ -2094,13 +2376,13 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>1752.85</v>
@@ -2109,7 +2391,7 @@
         <v>10.93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H2" s="2">
         <v>566444.66</v>
@@ -2120,13 +2402,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2">
         <v>27.15</v>
@@ -2135,7 +2417,7 @@
         <v>111.59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2">
         <v>89575.17</v>
@@ -2146,13 +2428,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>71.95</v>
@@ -2161,7 +2443,7 @@
         <v>100.87</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H4" s="2">
         <v>214578.09</v>
@@ -2172,13 +2454,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2">
         <v>478.86</v>
@@ -2187,7 +2469,7 @@
         <v>20.66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2">
         <v>292503.75</v>
@@ -2198,13 +2480,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2">
         <v>147.06</v>
@@ -2213,7 +2495,7 @@
         <v>99.17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H6" s="2">
         <v>431188.77</v>
@@ -2224,13 +2506,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2">
         <v>114.7</v>
@@ -2239,7 +2521,7 @@
         <v>22.46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2">
         <v>76166.8</v>
@@ -2250,13 +2532,13 @@
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E8" s="2">
         <v>225.38</v>
@@ -2265,7 +2547,7 @@
         <v>62.94</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H8" s="2">
         <v>419406.04</v>
@@ -2276,13 +2558,13 @@
         <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2">
         <v>5525.52</v>
@@ -2291,7 +2573,7 @@
         <v>4.65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2">
         <v>759658.98</v>
@@ -2302,13 +2584,13 @@
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2">
         <v>65205.5</v>
@@ -2317,7 +2599,7 @@
         <v>7.66</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H10" s="2">
         <v>499474.13</v>
@@ -2328,13 +2610,13 @@
         <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2">
         <v>507.9</v>
@@ -2343,7 +2625,7 @@
         <v>29.41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H11" s="2">
         <v>441637.36</v>
@@ -2364,13 +2646,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2378,13 +2660,13 @@
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2402,22 +2684,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1">
         <v>7690856</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2425,22 +2707,22 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>7690856</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2448,22 +2730,22 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2">
         <v>4802800</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2481,22 +2763,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1">
         <v>11000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2504,22 +2786,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2">
         <v>11000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2527,22 +2809,22 @@
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2">
         <v>15180000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2550,22 +2832,22 @@
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2">
         <v>6000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2573,22 +2855,22 @@
         <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2">
         <v>17265000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2609,19 +2891,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2632,19 +2914,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2655,19 +2937,19 @@
         <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2678,19 +2960,19 @@
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2">
         <v>1650</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2701,19 +2983,19 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳秉叡_2013-12-12_財產申報表_tmpea101.xlsx
+++ b/legislator/property/output/normal/吳秉叡_2013-12-12_財產申報表_tmpea101.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="139">
   <si>
     <t>name</t>
   </si>
@@ -290,6 +290,15 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
     <t>貝萊德環球企業債券基金</t>
   </si>
   <si>
@@ -321,6 +330,9 @@
   </si>
   <si>
     <t>中國信1右商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -2342,41 +2354,62 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1752.85</v>
-      </c>
-      <c r="F1" s="1">
-        <v>10.93</v>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="1">
-        <v>566444.66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>87</v>
@@ -2396,13 +2429,34 @@
       <c r="H2" s="2">
         <v>566444.66</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>87</v>
@@ -2422,13 +2476,34 @@
       <c r="H3" s="2">
         <v>89575.17</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>87</v>
@@ -2448,13 +2523,34 @@
       <c r="H4" s="2">
         <v>214578.09</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>87</v>
@@ -2474,13 +2570,34 @@
       <c r="H5" s="2">
         <v>292503.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>87</v>
@@ -2500,13 +2617,34 @@
       <c r="H6" s="2">
         <v>431188.77</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>87</v>
@@ -2526,19 +2664,40 @@
       <c r="H7" s="2">
         <v>76166.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2">
         <v>225.38</v>
@@ -2552,13 +2711,34 @@
       <c r="H8" s="2">
         <v>419406.04</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>87</v>
@@ -2578,13 +2758,34 @@
       <c r="H9" s="2">
         <v>759658.98</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>87</v>
@@ -2604,13 +2805,34 @@
       <c r="H10" s="2">
         <v>499474.13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>87</v>
@@ -2629,6 +2851,27 @@
       </c>
       <c r="H11" s="2">
         <v>441637.36</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2646,10 +2889,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>87</v>
@@ -2660,10 +2903,10 @@
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>87</v>
@@ -2684,22 +2927,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1">
         <v>7690856</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2707,22 +2950,22 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2">
         <v>7690856</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2730,22 +2973,22 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2">
         <v>4802800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2763,22 +3006,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1">
         <v>11000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2786,22 +3029,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2">
         <v>11000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2809,22 +3052,22 @@
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2">
         <v>15180000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2832,22 +3075,22 @@
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2">
         <v>6000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2855,22 +3098,22 @@
         <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E5" s="2">
         <v>17265000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2891,19 +3134,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2914,19 +3157,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2937,19 +3180,19 @@
         <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2960,19 +3203,19 @@
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E4" s="2">
         <v>1650</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2983,19 +3226,19 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳秉叡_2013-12-12_財產申報表_tmpea101.xlsx
+++ b/legislator/property/output/normal/吳秉叡_2013-12-12_財產申報表_tmpea101.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="140">
   <si>
     <t>name</t>
   </si>
@@ -101,343 +101,346 @@
     <t>1000000分之105046</t>
   </si>
   <si>
-    <t>吳秉截</t>
+    <t>吳秉叡</t>
+  </si>
+  <si>
+    <t>99年04月12日</t>
+  </si>
+  <si>
+    <t>79年10月01日</t>
+  </si>
+  <si>
+    <t>99年12月24日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超過五年)</t>
+  </si>
+  <si>
+    <t>7350000(此土地已交由兆豐銀行信託保管。）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-12</t>
+  </si>
+  <si>
+    <t>tmpea101</t>
+  </si>
+  <si>
+    <t>新北市新莊區福營段00790000建號+</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段00844000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段00713000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段00970000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段00843000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區中央段00638000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區中央段00328000建號</t>
+  </si>
+  <si>
+    <t>10分之2</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>100000分之551</t>
+  </si>
+  <si>
+    <t>100000分之263</t>
+  </si>
+  <si>
+    <t>100000分之320</t>
+  </si>
+  <si>
+    <t>100000分之153</t>
+  </si>
+  <si>
+    <t>100000分之2730</t>
+  </si>
+  <si>
+    <t>100000分之18303</t>
+  </si>
+  <si>
+    <t>99年08月23日</t>
+  </si>
+  <si>
+    <t>79年10月01曰</t>
+  </si>
+  <si>
+    <t>102年06月14曰</t>
+  </si>
+  <si>
+    <t>102年10月03日</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
+    <t>.(超過五年）</t>
+  </si>
+  <si>
+    <t>21294000(與第8筆土地合購此建物已交由兆豐銀行信託保管。)</t>
+  </si>
+  <si>
+    <t>11530890(與第9筆土地合購此建物已交由兆豐銀行信託保管。)</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>大台北商業銀行城內分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行板橋分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行館前分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行光復分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行大安分行</t>
+  </si>
+  <si>
+    <t>台北法院郵局(第20支局）</t>
+  </si>
+  <si>
+    <t>立法院郵局（第25支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行龍山分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行城內分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行中山分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行桃園分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>詹文馨</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>貝萊德環球企業債券基金</t>
+  </si>
+  <si>
+    <t>摩根東協基金</t>
+  </si>
+  <si>
+    <t>德盛小龍基金</t>
+  </si>
+  <si>
+    <t>霸菱全球資源基金〈美元〉</t>
+  </si>
+  <si>
+    <t>霸菱東歐基金〈美元〉</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓全球基金</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓全球拉丁美洲基金</t>
+  </si>
+  <si>
+    <t>聯博全球高收益債AT股</t>
+  </si>
+  <si>
+    <t>匯豐全球關鍵資源基金</t>
+  </si>
+  <si>
+    <t>貝萊德新興市場基金</t>
+  </si>
+  <si>
+    <t>中國信1右商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>安泰人壽55年增值分紅養老壽險</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>現金</t>
+  </si>
+  <si>
+    <t>聖裕投資有限公司新北市新莊區龍安路1.06巷1號4樓</t>
+  </si>
+  <si>
+    <t>冠虹投資有限公司新北市新莊區化成路814巷1號</t>
+  </si>
+  <si>
+    <t>102年07月15曰</t>
+  </si>
+  <si>
+    <t>股東代墊款</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>擔保貸款</t>
+  </si>
+  <si>
+    <t>私人債務</t>
+  </si>
+  <si>
+    <t>大台北商業銀行城內分行臺北市中正區重慶南路一段64號</t>
+  </si>
+  <si>
+    <t>吳鎮宇桃園縣桃圜市國聖一街</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行大安分行臺北市信義區信義路三段182號</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行大安分行臺北市信義區信義路二段182號</t>
+  </si>
+  <si>
+    <t>102年02月26日</t>
+  </si>
+  <si>
+    <t>102年09月.25日</t>
+  </si>
+  <si>
+    <t>102年10月16日</t>
+  </si>
+  <si>
+    <t>102年11月14日</t>
+  </si>
+  <si>
+    <t>投資</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>吳秉睿又</t>
   </si>
   <si>
-    <t>吳秉叡</t>
-  </si>
-  <si>
-    <t>99年04月12日</t>
-  </si>
-  <si>
-    <t>79年10月01日</t>
-  </si>
-  <si>
-    <t>99年12月24日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超過五年)</t>
-  </si>
-  <si>
-    <t>7350000(此土地已交由兆豐銀行信託保管。）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-12</t>
-  </si>
-  <si>
-    <t>tmpea101</t>
-  </si>
-  <si>
-    <t>新北市新莊區福營段00790000建號+</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段00844000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段00713000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段00970000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段00843000建號</t>
-  </si>
-  <si>
-    <t>新北市新店區中央段00638000建號</t>
-  </si>
-  <si>
-    <t>新北市新店區中央段00328000建號</t>
-  </si>
-  <si>
-    <t>10分之2</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>100000分之551</t>
-  </si>
-  <si>
-    <t>100000分之263</t>
-  </si>
-  <si>
-    <t>100000分之320</t>
-  </si>
-  <si>
-    <t>100000分之153</t>
-  </si>
-  <si>
-    <t>100000分之2730</t>
-  </si>
-  <si>
-    <t>100000分之18303</t>
-  </si>
-  <si>
-    <t>吳秉數</t>
-  </si>
-  <si>
-    <t>99年08月23日</t>
-  </si>
-  <si>
-    <t>79年10月01曰</t>
-  </si>
-  <si>
-    <t>102年06月14曰</t>
-  </si>
-  <si>
-    <t>102年10月03日</t>
-  </si>
-  <si>
-    <t>新建</t>
-  </si>
-  <si>
-    <t>.(超過五年）</t>
-  </si>
-  <si>
-    <t>21294000(與第8筆土地合購此建物已交由兆豐銀行信託保管。)</t>
-  </si>
-  <si>
-    <t>11530890(與第9筆土地合購此建物已交由兆豐銀行信託保管。)</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>deposit_type</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>大台北商業銀行城內分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行板橋分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行館前分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行光復分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行大安分行</t>
-  </si>
-  <si>
-    <t>台北法院郵局(第20支局）</t>
-  </si>
-  <si>
-    <t>立法院郵局（第25支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行龍山分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行城內分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行中山分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行桃園分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>吳秉戴</t>
-  </si>
-  <si>
-    <t>詹文馨</t>
-  </si>
-  <si>
-    <t>deposit</t>
-  </si>
-  <si>
-    <t>dealer</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>貝萊德環球企業債券基金</t>
-  </si>
-  <si>
-    <t>摩根東協基金</t>
-  </si>
-  <si>
-    <t>德盛小龍基金</t>
-  </si>
-  <si>
-    <t>霸菱全球資源基金〈美元〉</t>
-  </si>
-  <si>
-    <t>霸菱東歐基金〈美元〉</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓全球基金</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓全球拉丁美洲基金</t>
-  </si>
-  <si>
-    <t>聯博全球高收益債AT股</t>
-  </si>
-  <si>
-    <t>匯豐全球關鍵資源基金</t>
-  </si>
-  <si>
-    <t>貝萊德新興市場基金</t>
-  </si>
-  <si>
-    <t>中國信1右商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>fund</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>安泰人壽55年增值分紅養老壽險</t>
-  </si>
-  <si>
-    <t>現金</t>
-  </si>
-  <si>
-    <t>聖裕投資有限公司新北市新莊區龍安路1.06巷1號4樓</t>
-  </si>
-  <si>
-    <t>102年07月15曰</t>
-  </si>
-  <si>
-    <t>股東代墊款</t>
-  </si>
-  <si>
-    <t>冠虹投資有限公司新北市新莊區化成路814巷</t>
-  </si>
-  <si>
-    <t>102年07月</t>
-  </si>
-  <si>
-    <t>擔保貸款</t>
-  </si>
-  <si>
-    <t>大台北商業銀行城內分行臺北市中正區重慶南路一段64號</t>
-  </si>
-  <si>
-    <t>102年02月26日</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>私人債務</t>
-  </si>
-  <si>
-    <t>吳鎮宇桃園縣桃圜市國聖一街</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行大安分行臺北市信義區信義路三段182號</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行大安分行臺北市信義區信義路二段182號</t>
-  </si>
-  <si>
-    <t>102年09月.25日</t>
-  </si>
-  <si>
-    <t>102年10月16日</t>
-  </si>
-  <si>
-    <t>102年11月14日</t>
-  </si>
-  <si>
     <t>聖裕投資有限公司</t>
   </si>
   <si>
+    <t>益翔建設股份有限公司</t>
+  </si>
+  <si>
+    <t>福益實業股份有限公司</t>
+  </si>
+  <si>
+    <t>冠虹投資有限公司</t>
+  </si>
+  <si>
     <t>新北市龍安路106巷1號4樓</t>
   </si>
   <si>
-    <t>8736300</t>
+    <t>新北市成泰路一段2號3樓</t>
+  </si>
+  <si>
+    <t>臺北市愛國東路22號14樓</t>
+  </si>
+  <si>
+    <t>新北市化成路814巷1號</t>
   </si>
   <si>
     <t>100年08月29日</t>
   </si>
   <si>
+    <t>99年02月23日</t>
+  </si>
+  <si>
+    <t>78年07月01日</t>
+  </si>
+  <si>
+    <t>102年07月15日</t>
+  </si>
+  <si>
     <t>個人投資</t>
   </si>
   <si>
-    <t>益翔建設股份有限公司</t>
-  </si>
-  <si>
-    <t>福益實業股份有限公司</t>
-  </si>
-  <si>
-    <t>冠虹投資有限公司</t>
-  </si>
-  <si>
-    <t>新北市成泰路一段2號3樓</t>
-  </si>
-  <si>
-    <t>臺北市愛國東路22號14樓</t>
-  </si>
-  <si>
-    <t>新北市化成路814巷1號</t>
-  </si>
-  <si>
-    <t>10000000</t>
-  </si>
-  <si>
-    <t>2940000</t>
-  </si>
-  <si>
-    <t>99年02月23日</t>
-  </si>
-  <si>
-    <t>78年07月01日</t>
-  </si>
-  <si>
-    <t>102年07月15日</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -869,31 +872,31 @@
         <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2">
         <v>6146788</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>1324</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2">
         <v>14</v>
@@ -919,34 +922,34 @@
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2">
         <v>1324</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2">
         <v>15</v>
@@ -972,34 +975,34 @@
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2">
         <v>1324</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2">
         <v>16</v>
@@ -1025,34 +1028,34 @@
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2">
         <v>1324</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O5" s="2">
         <v>17</v>
@@ -1078,34 +1081,34 @@
         <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2">
         <v>1324</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O6" s="2">
         <v>18</v>
@@ -1131,34 +1134,34 @@
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2">
         <v>1324</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O7" s="2">
         <v>19</v>
@@ -1184,34 +1187,34 @@
         <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M8" s="2">
         <v>1324</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O8" s="2">
         <v>20</v>
@@ -1291,43 +1294,43 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>219.58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2">
         <v>470313</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>1324</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2">
         <v>28</v>
@@ -1344,43 +1347,43 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>59.84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2">
         <v>1324</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2">
         <v>29</v>
@@ -1397,43 +1400,43 @@
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
         <v>2165.17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2">
         <v>1324</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2">
         <v>30</v>
@@ -1450,43 +1453,43 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>983.38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2">
         <v>1324</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O5" s="2">
         <v>31</v>
@@ -1503,43 +1506,43 @@
         <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
         <v>34.75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2">
         <v>1324</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O6" s="2">
         <v>32</v>
@@ -1556,43 +1559,43 @@
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2">
         <v>2165.17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2">
         <v>1324</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O7" s="2">
         <v>33</v>
@@ -1609,43 +1612,43 @@
         <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>983.38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M8" s="2">
         <v>1324</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O8" s="2">
         <v>34</v>
@@ -1662,43 +1665,43 @@
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2">
         <v>144.63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="2">
         <v>1324</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O9" s="2">
         <v>35</v>
@@ -1715,43 +1718,43 @@
         <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2">
         <v>144.63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M10" s="2">
         <v>1324</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O10" s="2">
         <v>36</v>
@@ -1778,13 +1781,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1819,37 +1822,37 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>17240</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2">
         <v>1324</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M2" s="2">
         <v>61</v>
@@ -1860,37 +1863,37 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
         <v>561026</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2">
         <v>1324</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M3" s="2">
         <v>62</v>
@@ -1901,37 +1904,37 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>248</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2">
         <v>1324</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M4" s="2">
         <v>63</v>
@@ -1942,37 +1945,37 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2">
         <v>771</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2">
         <v>1324</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M5" s="2">
         <v>64</v>
@@ -1983,37 +1986,37 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2">
         <v>14200593</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2">
         <v>1324</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M6" s="2">
         <v>65</v>
@@ -2024,37 +2027,37 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F7" s="2">
         <v>339346</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K7" s="2">
         <v>1324</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M7" s="2">
         <v>66</v>
@@ -2065,37 +2068,37 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2">
         <v>1232986</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2">
         <v>1324</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M8" s="2">
         <v>67</v>
@@ -2106,37 +2109,37 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F9" s="2">
         <v>1012891</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="2">
         <v>1324</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M9" s="2">
         <v>68</v>
@@ -2147,37 +2150,37 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2">
         <v>1140706</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K10" s="2">
         <v>1324</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M10" s="2">
         <v>69</v>
@@ -2188,37 +2191,37 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F11" s="2">
         <v>3495199</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K11" s="2">
         <v>1324</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M11" s="2">
         <v>70</v>
@@ -2229,37 +2232,37 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2">
         <v>739</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="2">
         <v>1324</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M12" s="2">
         <v>71</v>
@@ -2270,37 +2273,37 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2">
         <v>52809.6</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K13" s="2">
         <v>1324</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M13" s="2">
         <v>72</v>
@@ -2311,37 +2314,37 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F14" s="2">
         <v>597806.78</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K14" s="2">
         <v>1324</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M14" s="2">
         <v>73</v>
@@ -2368,16 +2371,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -2409,13 +2412,13 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>1752.85</v>
@@ -2424,28 +2427,28 @@
         <v>10.93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2">
         <v>566444.66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>1324</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2">
         <v>90</v>
@@ -2456,13 +2459,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
         <v>27.15</v>
@@ -2471,28 +2474,28 @@
         <v>111.59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2">
         <v>89575.17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2">
         <v>1324</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2">
         <v>92</v>
@@ -2503,13 +2506,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2">
         <v>71.95</v>
@@ -2518,28 +2521,28 @@
         <v>100.87</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2">
         <v>214578.09</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2">
         <v>1324</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2">
         <v>93</v>
@@ -2550,13 +2553,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2">
         <v>478.86</v>
@@ -2565,28 +2568,28 @@
         <v>20.66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2">
         <v>292503.75</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2">
         <v>1324</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O5" s="2">
         <v>94</v>
@@ -2597,13 +2600,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2">
         <v>147.06</v>
@@ -2612,28 +2615,28 @@
         <v>99.17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2">
         <v>431188.77</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2">
         <v>1324</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O6" s="2">
         <v>95</v>
@@ -2644,13 +2647,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2">
         <v>114.7</v>
@@ -2659,28 +2662,28 @@
         <v>22.46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2">
         <v>76166.8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2">
         <v>1324</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O7" s="2">
         <v>96</v>
@@ -2691,13 +2694,13 @@
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E8" s="2">
         <v>225.38</v>
@@ -2706,28 +2709,28 @@
         <v>62.94</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2">
         <v>419406.04</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M8" s="2">
         <v>1324</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O8" s="2">
         <v>97</v>
@@ -2738,13 +2741,13 @@
         <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2">
         <v>5525.52</v>
@@ -2753,28 +2756,28 @@
         <v>4.65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2">
         <v>759658.98</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="2">
         <v>1324</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O9" s="2">
         <v>98</v>
@@ -2785,13 +2788,13 @@
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2">
         <v>65205.5</v>
@@ -2800,28 +2803,28 @@
         <v>7.66</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2">
         <v>499474.13</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M10" s="2">
         <v>1324</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O10" s="2">
         <v>99</v>
@@ -2832,13 +2835,13 @@
         <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2">
         <v>507.9</v>
@@ -2847,28 +2850,28 @@
         <v>29.41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H11" s="2">
         <v>441637.36</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M11" s="2">
         <v>1324</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O11" s="2">
         <v>100</v>
@@ -2881,35 +2884,77 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1324</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2919,33 +2964,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1">
-        <v>7690856</v>
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>120</v>
       </c>
@@ -2953,7 +3019,7 @@
         <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>107</v>
@@ -2962,33 +3028,75 @@
         <v>7690856</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>110</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2">
         <v>4802800</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>109</v>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2998,122 +3106,227 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="1">
-        <v>11000000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2">
         <v>11000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>128</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>129</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E3" s="2">
         <v>15180000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>122</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E4" s="2">
         <v>6000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>122</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2">
         <v>17265000</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>115</v>
+      <c r="H5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="2">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3123,87 +3336,150 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8736300</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>136</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>136</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>137</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>134</v>
+      <c r="E3" s="2">
+        <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2">
         <v>136</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>132</v>
@@ -3212,33 +3488,75 @@
         <v>1650</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="2">
         <v>137</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>135</v>
+      <c r="E5" s="2">
+        <v>2940000</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>127</v>
+      <c r="H5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="2">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
